--- a/xlsx/工业革命_intext.xlsx
+++ b/xlsx/工业革命_intext.xlsx
@@ -15,851 +15,842 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
   <si>
     <t>工业革命</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Industrial_Revolution</t>
+  </si>
+  <si>
+    <t>en-Industrial Revolution</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_工业革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8</t>
+  </si>
+  <si>
+    <t>机器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>人力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
+  </si>
+  <si>
+    <t>工厂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>历史学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96</t>
+  </si>
+  <si>
+    <t>工业化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%B7%A5%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>手工业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>英国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%93%A6%E7%89%B9</t>
+  </si>
+  <si>
+    <t>詹姆斯·瓦特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>蒸汽机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
+  </si>
+  <si>
+    <t>北美</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%85%A4</t>
+  </si>
+  <si>
+    <t>煤</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%81</t>
+  </si>
+  <si>
+    <t>铁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%92%A2</t>
+  </si>
+  <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>农业革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>人类社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%95%E7%A8%AE</t>
+  </si>
+  <si>
+    <t>耕种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%95%9C%E7%89%A7</t>
+  </si>
+  <si>
+    <t>畜牧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9B</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
+  </si>
+  <si>
+    <t>中世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%B0%91</t>
+  </si>
+  <si>
+    <t>农民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>商人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%8C%A0</t>
+  </si>
+  <si>
+    <t>工匠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%A3</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%BB%8A</t>
+  </si>
+  <si>
+    <t>马车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
+  </si>
+  <si>
+    <t>运输</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>运河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>风力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>水力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>英国农业革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/British_Agricultural_Revolution</t>
+  </si>
+  <si>
+    <t>British Agricultural Revolution</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%88%E5%9C%B0%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>圈地运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>劳动力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%9F%BF</t>
+  </si>
+  <si>
+    <t>煤矿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%81%E7%9F%BF</t>
+  </si>
+  <si>
+    <t>铁矿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%E4%B8%80%E4%B8%96</t>
+  </si>
+  <si>
+    <t>詹姆士一世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>专利权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>欧洲封建制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E7%81%AB%E7%BA%BF</t>
+  </si>
+  <si>
+    <t>导火线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
+  </si>
+  <si>
+    <t>贵族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
+  </si>
+  <si>
+    <t>自由贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>工业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E6%8A%80%E8%A1%93</t>
+  </si>
+  <si>
+    <t>生产技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93</t>
+  </si>
+  <si>
+    <t>世界贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%96%99</t>
+  </si>
+  <si>
+    <t>原料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%8C%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·希克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%8D%A3%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>光荣革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
+  </si>
+  <si>
+    <t>伦敦证券交易所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B9%94%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>织机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%BA%BB</t>
+  </si>
+  <si>
+    <t>亚麻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E7%B4%90%E7%A7%91%E9%96%80</t>
+  </si>
+  <si>
+    <t>汤玛斯·纽科门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E7%82%AD</t>
+  </si>
+  <si>
+    <t>焦炭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E7%BC%B8</t>
+  </si>
+  <si>
+    <t>气缸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%82%AD</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%AF%8C</t>
+  </si>
+  <si>
+    <t>财富</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD</t>
+  </si>
+  <si>
+    <t>蒸汽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E5%8C%96</t>
+  </si>
+  <si>
+    <t>机械化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%A5%AD%E5%85%AC%E6%9C%83</t>
+  </si>
+  <si>
+    <t>同业公会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%9D%8A</t>
+  </si>
+  <si>
+    <t>作坊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>三圃制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E9%98%B6%E7%BA%A7</t>
+  </si>
+  <si>
+    <t>工人阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%E4%B8%80%E4%B8%96</t>
+  </si>
+  <si>
+    <t>伊丽莎白一世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E6%B0%91%E8%B5%B7%E4%B9%89</t>
+  </si>
+  <si>
+    <t>农民起义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E7%BA%BA%E7%BA%B1%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>珍妮纺纱机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
+  </si>
+  <si>
+    <t>发明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%B1</t>
+  </si>
+  <si>
+    <t>约翰·凯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%93%88%E6%A0%BC%E9%87%8C%E5%A4%AB%E6%96%AF</t>
+  </si>
+  <si>
+    <t>詹姆士·哈格里夫斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%93%88%E6%9E%97%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>约翰·哈林顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%B0%B4%E9%A6%AC%E6%A1%B6</t>
+  </si>
+  <si>
+    <t>抽水马桶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BD%97%E6%96%AF%C2%B7%E5%A1%9E%E5%B0%BC%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>阿罗斯·塞尼菲尔德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%AF%8C%E5%B0%94%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>罗伯特·富尔顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E8%BC%AA%E8%88%B9</t>
+  </si>
+  <si>
+    <t>蒸汽轮船</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E7%89%B9%E9%87%8C%E7%B6%AD%E8%A5%BF%E5%85%8B</t>
+  </si>
+  <si>
+    <t>理查德·特里维西克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%8F%B2%E8%92%82%E8%8A%AC%E7%94%9F</t>
+  </si>
+  <si>
+    <t>乔治·史蒂芬生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%81%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>铁路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%BC%97%E8%8E%B1%C2%B7%E6%88%B4%E7%BB%B4</t>
+  </si>
+  <si>
+    <t>汉弗莱·戴维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E7%81%AB%E8%BB%8A</t>
+  </si>
+  <si>
+    <t>蒸汽火车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>摩斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%8A%A5%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>电报机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E6%A0%BC%E6%8B%89%E6%B1%89%E5%A7%86%C2%B7%E8%B4%9D%E5%B0%94</t>
+  </si>
+  <si>
+    <t>亚历山大·格拉汉姆·贝尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%AF%9D</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%9C%AC%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>卡尔·本茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%B8%88</t>
+  </si>
+  <si>
+    <t>工程师</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>科学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>电学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%8C%96</t>
+  </si>
+  <si>
+    <t>都市化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
+  </si>
+  <si>
+    <t>都会区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>商品经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E4%B8%96</t>
+  </si>
+  <si>
+    <t>来世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
+  </si>
+  <si>
+    <t>中产阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>民主政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>社会福利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
+  </si>
+  <si>
+    <t>资产阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%BE%B7%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>卢德运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>左派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>农业社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%98</t>
+  </si>
+  <si>
+    <t>身高</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%94%E7%8C%8E</t>
+  </si>
+  <si>
+    <t>渔猎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E8%80%95</t>
+  </si>
+  <si>
+    <t>农耕</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>牛津大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>智人</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Industrial_Revolution</t>
-  </si>
-  <si>
-    <t>en-Industrial Revolution</t>
-  </si>
-  <si>
-    <t>政策_政策_管理_工业革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8</t>
-  </si>
-  <si>
-    <t>机器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>人力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
-  </si>
-  <si>
-    <t>工廠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
-  </si>
-  <si>
-    <t>科技</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>歷史學家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>馬克思主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>资本主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96</t>
-  </si>
-  <si>
-    <t>工业化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%B7%A5%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>手工业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>英格兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>英国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%93%A6%E7%89%B9</t>
-  </si>
-  <si>
-    <t>詹姆斯·瓦特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>蒸汽机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
-  </si>
-  <si>
-    <t>北美</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%85%A4</t>
-  </si>
-  <si>
-    <t>煤</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%81</t>
-  </si>
-  <si>
-    <t>铁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%92%A2</t>
-  </si>
-  <si>
-    <t>钢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>農業革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>人类社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%95%E7%A8%AE</t>
-  </si>
-  <si>
-    <t>耕種</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%95%9C%E7%89%A7</t>
-  </si>
-  <si>
-    <t>畜牧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B</t>
-  </si>
-  <si>
-    <t>牛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7</t>
-  </si>
-  <si>
-    <t>工具</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
-  </si>
-  <si>
-    <t>中世紀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%B0%91</t>
-  </si>
-  <si>
-    <t>農民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>商人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%8C%A0</t>
-  </si>
-  <si>
-    <t>工匠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A3</t>
-  </si>
-  <si>
-    <t>衣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%BB%8A</t>
-  </si>
-  <si>
-    <t>馬車</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
-  </si>
-  <si>
-    <t>運輸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>道路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>運河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>风力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>水力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2</t>
-  </si>
-  <si>
-    <t>生產</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>英国农业革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/British_Agricultural_Revolution</t>
-  </si>
-  <si>
-    <t>British Agricultural Revolution</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%88%E5%9C%B0%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>圈地运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>勞動力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%9F%BF</t>
-  </si>
-  <si>
-    <t>煤矿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%81%E7%9F%BF</t>
-  </si>
-  <si>
-    <t>铁矿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%E4%B8%80%E4%B8%96</t>
-  </si>
-  <si>
-    <t>詹姆士一世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>專利權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>歐洲封建制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E7%81%AB%E7%BA%BF</t>
-  </si>
-  <si>
-    <t>导火线</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
-  </si>
-  <si>
-    <t>貴族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>貿易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>自由貿易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>工業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>商業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E6%8A%80%E8%A1%93</t>
-  </si>
-  <si>
-    <t>生產技術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>世界貿易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%96%99</t>
-  </si>
-  <si>
-    <t>原料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%8C%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·希克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%8D%A3%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>光荣革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
-  </si>
-  <si>
-    <t>伦敦证券交易所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B9%94%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>織機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%BA%BB</t>
-  </si>
-  <si>
-    <t>亚麻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E7%B4%90%E7%A7%91%E9%96%80</t>
-  </si>
-  <si>
-    <t>湯瑪斯·紐科門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E7%82%AD</t>
-  </si>
-  <si>
-    <t>焦炭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E7%BC%B8</t>
-  </si>
-  <si>
-    <t>气缸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%82%AD</t>
-  </si>
-  <si>
-    <t>煤炭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%AF%8C</t>
-  </si>
-  <si>
-    <t>財富</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
-  </si>
-  <si>
-    <t>利润</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD</t>
-  </si>
-  <si>
-    <t>蒸汽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E5%8C%96</t>
-  </si>
-  <si>
-    <t>機械化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%A5%AD%E5%85%AC%E6%9C%83</t>
-  </si>
-  <si>
-    <t>同業公會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%9D%8A</t>
-  </si>
-  <si>
-    <t>作坊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>三圃制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E9%98%B6%E7%BA%A7</t>
-  </si>
-  <si>
-    <t>工人阶级</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%E4%B8%80%E4%B8%96</t>
-  </si>
-  <si>
-    <t>伊丽莎白一世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E6%B0%91%E8%B5%B7%E4%B9%89</t>
-  </si>
-  <si>
-    <t>农民起义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E7%BA%BA%E7%BA%B1%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>珍妮纺纱机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
-  </si>
-  <si>
-    <t>發明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%B1</t>
-  </si>
-  <si>
-    <t>約翰·凱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%93%88%E6%A0%BC%E9%87%8C%E5%A4%AB%E6%96%AF</t>
-  </si>
-  <si>
-    <t>詹姆士·哈格里夫斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%93%88%E6%9E%97%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>约翰·哈林顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%B0%B4%E9%A6%AC%E6%A1%B6</t>
-  </si>
-  <si>
-    <t>抽水馬桶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BD%97%E6%96%AF%C2%B7%E5%A1%9E%E5%B0%BC%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>阿罗斯·塞尼菲尔德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%AF%8C%E5%B0%94%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>罗伯特·富尔顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E8%BC%AA%E8%88%B9</t>
-  </si>
-  <si>
-    <t>蒸汽輪船</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E7%89%B9%E9%87%8C%E7%B6%AD%E8%A5%BF%E5%85%8B</t>
-  </si>
-  <si>
-    <t>理查德·特里維西克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%8F%B2%E8%92%82%E8%8A%AC%E7%94%9F</t>
-  </si>
-  <si>
-    <t>喬治·史蒂芬生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%81%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>铁路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%BC%97%E8%8E%B1%C2%B7%E6%88%B4%E7%BB%B4</t>
-  </si>
-  <si>
-    <t>汉弗莱·戴维</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E7%81%AB%E8%BB%8A</t>
-  </si>
-  <si>
-    <t>蒸汽火車</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>摩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%8A%A5%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>电报机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E6%A0%BC%E6%8B%89%E6%B1%89%E5%A7%86%C2%B7%E8%B4%9D%E5%B0%94</t>
-  </si>
-  <si>
-    <t>亚历山大·格拉汉姆·贝尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%AF%9D</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%9C%AC%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>卡尔·本茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%B8%88</t>
-  </si>
-  <si>
-    <t>工程师</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>科学家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>电学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%8C%96</t>
-  </si>
-  <si>
-    <t>都市化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
-  </si>
-  <si>
-    <t>都會區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>商品经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E4%B8%96</t>
-  </si>
-  <si>
-    <t>來世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
-  </si>
-  <si>
-    <t>中产阶级</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>民主政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
-  </si>
-  <si>
-    <t>社會福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A6%8F%E5%88%A9</t>
-  </si>
-  <si>
-    <t>社会福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
-  </si>
-  <si>
-    <t>资产阶级</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%BE%B7%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>卢德运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>馬克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>左派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>共產主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>農業社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%98</t>
-  </si>
-  <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%94%E7%8C%8E</t>
-  </si>
-  <si>
-    <t>渔猎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E8%80%95</t>
-  </si>
-  <si>
-    <t>農耕</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>牛津大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
-  </si>
-  <si>
-    <t>中世纪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>智人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
@@ -869,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%BA%AB%E8%98%AD%E5%B0%BC%E5%A7%86</t>
   </si>
   <si>
-    <t>赫庫蘭尼姆</t>
+    <t>赫库兰尼姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E4%BA%A7%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>後工業社會</t>
+    <t>后工业社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -905,37 +896,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD4.0</t>
   </si>
   <si>
-    <t>工業4.0</t>
+    <t>工业4.0</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E6%89%98%E6%B4%9B%E6%A2%85%E7%83%8F%C2%B7%E8%BF%AA%E4%BA%9E%E5%A3%AB</t>
   </si>
   <si>
-    <t>巴爾托洛梅烏·迪亞士</t>
+    <t>巴尔托洛梅乌·迪亚士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>哥倫布</t>
+    <t>哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E4%BC%BD%E9%A6%AC</t>
   </si>
   <si>
-    <t>達伽馬</t>
+    <t>达伽马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%93%B2%E5%80%AB</t>
   </si>
   <si>
-    <t>麥哲倫</t>
+    <t>麦哲伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -965,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -977,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -1341,7 +1332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3596,7 +3587,7 @@
         <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="G78" t="n">
         <v>31</v>
@@ -3622,10 +3613,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3651,10 +3642,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3680,10 +3671,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3738,10 +3729,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>20</v>
@@ -3767,10 +3758,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3796,10 +3787,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -3825,10 +3816,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>6</v>
@@ -3854,10 +3845,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3883,10 +3874,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -3912,10 +3903,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3941,10 +3932,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3970,10 +3961,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3999,10 +3990,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>9</v>
@@ -4028,10 +4019,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4057,10 +4048,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4086,10 +4077,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4115,10 +4106,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4173,10 +4164,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4202,10 +4193,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4231,10 +4222,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4260,10 +4251,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4289,10 +4280,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4318,10 +4309,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4347,10 +4338,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4376,10 +4367,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" t="s">
         <v>195</v>
-      </c>
-      <c r="F105" t="s">
-        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4405,10 +4396,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4434,10 +4425,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4463,10 +4454,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4492,10 +4483,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4521,10 +4512,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
-      </c>
-      <c r="F110" t="s">
-        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4550,10 +4541,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4579,10 +4570,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4608,10 +4599,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4637,10 +4628,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" t="s">
         <v>219</v>
-      </c>
-      <c r="F114" t="s">
-        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -4666,10 +4657,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" t="s">
         <v>221</v>
-      </c>
-      <c r="F115" t="s">
-        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4695,10 +4686,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" t="s">
         <v>223</v>
-      </c>
-      <c r="F116" t="s">
-        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4724,10 +4715,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
         <v>225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4753,10 +4744,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4782,10 +4773,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4811,10 +4802,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4840,10 +4831,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4869,10 +4860,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4898,10 +4889,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4927,10 +4918,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4956,10 +4947,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4985,10 +4976,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5014,10 +5005,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5043,10 +5034,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5072,10 +5063,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5101,10 +5092,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5130,10 +5121,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5159,10 +5150,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5188,10 +5179,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5217,10 +5208,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>14</v>
@@ -5246,10 +5237,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5275,10 +5266,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5304,10 +5295,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5333,10 +5324,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5362,10 +5353,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5391,10 +5382,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5420,10 +5411,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5449,10 +5440,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5478,10 +5469,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5507,10 +5498,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5536,13 +5527,13 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -5565,10 +5556,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5594,10 +5585,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5623,10 +5614,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5652,10 +5643,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5681,10 +5672,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5710,10 +5701,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5739,10 +5730,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5768,10 +5759,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5797,10 +5788,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5826,10 +5817,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5855,10 +5846,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5884,10 +5875,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5913,13 +5904,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -5942,13 +5933,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>127</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>128</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -5971,10 +5962,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6000,10 +5991,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6029,10 +6020,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6058,13 +6049,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6087,13 +6078,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -6116,10 +6107,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6145,10 +6136,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6174,13 +6165,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -6203,18 +6194,47 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
       </c>
       <c r="I168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>168</v>
+      </c>
+      <c r="E169" t="s">
+        <v>320</v>
+      </c>
+      <c r="F169" t="s">
+        <v>322</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="s">
+        <v>4</v>
+      </c>
+      <c r="I169" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/工业革命_intext.xlsx
+++ b/xlsx/工业革命_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Industrial Revolution</t>
   </si>
   <si>
-    <t>政策_政策_管理_工业革命</t>
+    <t>体育运动_体育运动_技术_工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8</t>
